--- a/RFAI_1.xlsx
+++ b/RFAI_1.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,18 +30,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Team Member Names:</t>
-  </si>
-  <si>
-    <t>1)</t>
-  </si>
-  <si>
-    <t>2)</t>
-  </si>
-  <si>
-    <t>3)</t>
-  </si>
-  <si>
-    <t>4)</t>
   </si>
   <si>
     <t>Question No 1:</t>
@@ -94,33 +82,32 @@
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Team </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XX</t>
-    </r>
-  </si>
-  <si>
     <t>Project Oversight Team</t>
   </si>
   <si>
     <t xml:space="preserve">     Our team respectfully requests the oversight team provide responses to the following project related questions. Thank you in advance for your assistance.</t>
+  </si>
+  <si>
+    <t>4) Josh Walker</t>
+  </si>
+  <si>
+    <t>3) Nate Roe</t>
+  </si>
+  <si>
+    <t>2) Yanfei Liu</t>
+  </si>
+  <si>
+    <t>1) Trang Dieu</t>
+  </si>
+  <si>
+    <t>Team 42</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,14 +156,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -580,22 +559,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1097,7 +1076,7 @@
   <dimension ref="B1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="89" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:E24"/>
+      <selection activeCell="C4" sqref="C4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1107,7 +1086,7 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="33" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -1151,10 +1130,10 @@
     </row>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9">
-        <v>42408</v>
+        <v>42416</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
@@ -1183,10 +1162,10 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="77" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
@@ -1215,10 +1194,10 @@
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="77" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
@@ -1247,10 +1226,10 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="77" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1279,7 +1258,7 @@
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="60" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="61"/>
@@ -1365,7 +1344,7 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="51" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
@@ -1439,7 +1418,7 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="48" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -1455,7 +1434,7 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="48" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
@@ -1471,7 +1450,7 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="48" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
@@ -1487,7 +1466,7 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="48" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="49"/>
@@ -1531,7 +1510,7 @@
     </row>
     <row r="29" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="89" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C29" s="90"/>
       <c r="D29" s="90"/>
@@ -1589,7 +1568,7 @@
     </row>
     <row r="33" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="89" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C33" s="90"/>
       <c r="D33" s="90"/>
@@ -1647,7 +1626,7 @@
     </row>
     <row r="37" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="89" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C37" s="90"/>
       <c r="D37" s="90"/>
@@ -1705,7 +1684,7 @@
     </row>
     <row r="41" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="89" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C41" s="90"/>
       <c r="D41" s="90"/>
@@ -1763,7 +1742,7 @@
     </row>
     <row r="45" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="89" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C45" s="90"/>
       <c r="D45" s="90"/>

--- a/RFAI_1.xlsx
+++ b/RFAI_1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Team Member Names:</t>
   </si>
@@ -45,23 +45,6 @@
   </si>
   <si>
     <t>Question No 5:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Team </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XX</t>
-    </r>
   </si>
   <si>
     <t>Memorandum:</t>
@@ -107,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,15 +110,6 @@
       <b/>
       <sz val="15"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="15"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -559,22 +533,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -613,31 +587,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -694,31 +668,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1075,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="89" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="89" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1086,7 +1060,7 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -1130,7 +1104,7 @@
     </row>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="9">
         <v>42416</v>
@@ -1162,10 +1136,10 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
@@ -1194,10 +1168,10 @@
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
@@ -1226,10 +1200,10 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1258,7 +1232,7 @@
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="61"/>
@@ -1344,7 +1318,7 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="51" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
@@ -1418,7 +1392,7 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -1434,7 +1408,7 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
@@ -1450,7 +1424,7 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
@@ -1466,7 +1440,7 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="49"/>
